--- a/word/Table2.xlsx
+++ b/word/Table2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>OTB</t>
   </si>
@@ -123,6 +123,32 @@
     </r>
   </si>
   <si>
+    <t>Pred. Int. (+/-)</t>
+  </si>
+  <si>
+    <t>St. Err.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Table 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Summary of seagrass depth estimates (m) for each segment in Fig. 4. Whole segment estimates and prediction intervals were obtained from a single point estimate that included all seagrass depth data for the segment.  Mean, standard error, standard deviation, minimum, and maximum values are for multiple grid points within each segment in Fig. 4. Mean and standard error estimates were from intercept-only models that included Gaussian correlation structures to account for spatial dependencies between points</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Segment</t>
     </r>
@@ -130,24 +156,20 @@
       <rPr>
         <b/>
         <i/>
-        <vertAlign val="subscript"/>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times"/>
-        <family val="1"/>
       </rPr>
       <t>a</t>
     </r>
-  </si>
-  <si>
-    <t>Table 2: Summary of seagrass depth estimates (m) for each segment using all grid locations in Fig. 4.  Whole segment estimates were obtained from all seagrass depth data for each segment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +226,29 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <i/>
-      <vertAlign val="subscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -280,12 +318,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -304,13 +336,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,50 +635,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="6" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -645,292 +696,496 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.39</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1.56</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="G4" s="12">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="H4" s="12">
+        <v>2.72</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
-        <v>2.46</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.74</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="12">
+        <v>2.29</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1.94</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="F5" s="12">
         <v>0.76</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="G5" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2.97</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12">
-        <v>3.66</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2.09</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="B6" s="13">
+        <v>3.84</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2.29</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="G6" s="13">
         <v>0.74</v>
       </c>
-      <c r="F6" s="12">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="13">
+        <v>3.48</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E8" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1.48</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="C9" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F9" s="12">
         <v>0.3</v>
       </c>
-      <c r="F9" s="4">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="G9" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1.74</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1.19</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.38</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="F10" s="12">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>1.07</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="H10" s="13">
+        <v>2.04</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1.35</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="B12" s="12">
+        <v>1.19</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1.36</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="12">
         <v>2.0099999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="12">
+        <v>1.48</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="12">
         <v>1.51</v>
       </c>
-      <c r="C13" s="4">
-        <v>1.52</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="E13" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F13" s="12">
         <v>0.23</v>
       </c>
-      <c r="E13" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="G13" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="H13" s="12">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <v>1.77</v>
       </c>
-      <c r="C14" s="12">
-        <v>1.69</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1.63</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="F14" s="13">
         <v>0.23</v>
       </c>
-      <c r="E14" s="12">
-        <v>1.06</v>
-      </c>
-      <c r="F14" s="12">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H14" s="13">
+        <v>2.16</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1.56</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="12">
+        <v>1.84</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1.58</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="H16" s="12">
+        <v>2.29</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="4">
-        <v>2.16</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1.93</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1.26</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
+      <c r="B17" s="12">
+        <v>2.17</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1.51</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="12">
         <v>2.5</v>
       </c>
-      <c r="C18" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2.36</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F18" s="12">
         <v>0.39</v>
       </c>
-      <c r="E18" s="5">
-        <v>1.63</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="G18" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="H18" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>